--- a/jvc43_bom.xlsx
+++ b/jvc43_bom.xlsx
@@ -4,14 +4,14 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="12520" windowHeight="4420"/>
+    <workbookView activeTab="0" windowWidth="12300" windowHeight="4330"/>
   </bookViews>
   <sheets>
-    <sheet name="jvc43.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="jvc43b.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"jvc43.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"jvc43b.csv"</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" codePage="1252"/>
@@ -19,57 +19,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
-    <t>Part#</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Tolerance</t>
-  </si>
-  <si>
-    <t>Isat</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>6.3V</t>
+  </si>
+  <si>
+    <t>4.7u</t>
+  </si>
+  <si>
+    <t>CGA4J3X7R1C475M125AB</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>1u</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>6.3V</t>
-  </si>
-  <si>
-    <t>22n</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
+    <t>CGA3E1X7R1E105K080AC</t>
   </si>
   <si>
     <t>myfp:L_5.8x5.8mm_cutcir_6.3mm</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0402_1005Metric</t>
+    <t>dnp</t>
   </si>
   <si>
     <t>PT61020EL</t>
@@ -155,55 +161,71 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV32"/>
+  <dimension ref="A1:IV65536"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" style="0" width="43.14026442307693" customWidth="1"/>
     <col min="2" max="2" style="1" width="9.142307692307693"/>
-    <col min="3" max="3" style="1" width="25.712740384615387" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="0" width="43.14026442307693" customWidth="1"/>
-    <col min="5" max="5" style="0" width="9.142307692307693" hidden="1"/>
-    <col min="6" max="6" style="0" width="24.141406250000003" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" style="0" width="9.142307692307693"/>
-    <col min="8" max="8" style="0" width="9.570853365384616" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" style="0" width="13.427764423076924" customWidth="1"/>
+    <col min="4" max="4" style="0" width="36.56923076923077" customWidth="1"/>
+    <col min="5" max="5" style="0" width="9.142307692307693"/>
+    <col min="6" max="6" style="0" width="25.141346153846158" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" style="0" width="8.856610576923078" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" style="0" width="10.999338942307693" bestFit="1" customWidth="1"/>
     <col min="9" max="256" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="13.5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Footprint</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Datasheet</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Part#</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Voltage</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Tolerance</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Isat</t>
+        </is>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -453,137 +475,155 @@
       <c r="IU1" s="2"/>
       <c r="IV1" s="2"/>
     </row>
-    <row r="2" spans="1:256" ht="64.5">
+    <row r="2" spans="1:256" ht="77.25">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>C101 C211 C212 C213 C214 C215 C216 C217 C218 C219 C220 C221 C222 C223 C224 C225 C226 C227 C228 C311 C312 C313 C314 C315 C316 C317 C318 C319 C320 C321 C322 C323 C324 C325 C326 C327 C328</t>
+          <t>C101 C201 C202 C203 C204 C212 C213 C214 C215 C216 C217 C218 C220 C221 C222 C223 C224 C225 C226 C227 C228 C231 C301 C302 C303 C304 C312 C313 C314 C315 C316 C317 C318 C320 C321 C322 C323 C324 C325 C326 C327 C328 C331</t>
         </is>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10n</t>
+          <t>0.1u</t>
         </is>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CGA2B1X7R1C104K050BC</t>
+        </is>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C201 C202 C203 C204 C301 C302 C303 C304</t>
+          <t>C205 C206 C207 C208 C305 C306 C307 C308</t>
         </is>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22n</t>
+        </is>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CGA4J3X7R2E223K125AA</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16V</t>
+          <t>250V</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:256">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C205 C206 C207 C208 C305 C306 C307 C308</t>
+          <t>C209 C309</t>
         </is>
       </c>
       <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1n</t>
+        </is>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CGA4J3X7R2E223K125AE</t>
+          <t>C1206X102KGRACAUTO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>250V</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:256">
+          <t>2kV</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="13.5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C209 C309</t>
+          <t>C210 C211 C310 C311</t>
         </is>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1n</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2kV</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:256">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GCM21BR71A106KE22L</t>
+        </is>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="13.5">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C210 C310</t>
+          <t>C219 C229 C319 C329</t>
         </is>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10u</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CGA4J1X7R0J106K125AC</t>
+        </is>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:256">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C405 C406</t>
+          <t>C230 C330</t>
         </is>
       </c>
       <c r="B7">
@@ -591,615 +631,836 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1u</t>
+          <t>10n</t>
         </is>
       </c>
       <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CGA2B2X7R1E103K050BA</t>
+        </is>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="13.5">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C232 C332</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256" ht="13.5">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C401 C402</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:256" ht="13.5">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C403 C404</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>GCJ31CR71A226KE01K</t>
+        </is>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256" ht="13.5">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:256" ht="13.5">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C406</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>25V</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:256">
-      <c r="A8" t="inlineStr">
+    <row r="13" spans="1:256">
+      <c r="A13" t="inlineStr">
         <is>
           <t>C407 C408</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>22p</t>
         </is>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CGA3E2NP01H220J080AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="13.5">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C409 C410</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CGA5L1X7R0J226M160AC</t>
+        </is>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" ht="13.5">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C411</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:256">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C403 C404 C409 C410</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22u</t>
-        </is>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:256">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C401 C402 C411</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4.7u</t>
-        </is>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:256">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>D201 D301</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1N4148WS</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Diode_SMD:D_SOD-323</t>
-        </is>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:256">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>J201 J301</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8P8C_LED_Shielded</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>myfp:RJ45_Amphenol_RJE73-188-00XX1-0X</t>
-        </is>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>RJE73-188-00440</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:256" ht="13.5">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>J401</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>USB_C_Receptacle_USB2.0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>myfp:USB_C_GCT_USB4085</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.usb.org/sites/default/files/documents/usb_type-c.zip</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>USB4085-GF-A</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:256">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>L201 L202 L203 L301 L302 L303</t>
-        </is>
-      </c>
-      <c r="B14">
+      <c r="G15" t="s">
         <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>470 ohm</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Inductor_SMD:L_0603_1608Metric</t>
-        </is>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>MPZ1608S601ATD25</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" spans="1:256">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>L401</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>47uH</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>myfp:L_Panasonic_ETQ-P4MxxxKFM</t>
-        </is>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ETQ-P4M470KFM</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>&gt;3.0A</t>
-        </is>
       </c>
     </row>
     <row r="16" spans="1:256">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>D201 D301</t>
         </is>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.2uH</t>
-        </is>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
+          <t>1N4148WS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Diode_SMD:D_SOD-323</t>
+        </is>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SRR5028-4R2Y</t>
+          <t>1N4148WS-E3-08</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:256">
       <c r="A17" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>J201 J301</t>
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6.2uH</t>
-        </is>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
+          <t>8P8C_LED_Shielded</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>myfp:RJ45_Amphenol_RJE73-188-00XX1-0X</t>
+        </is>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SRR5028-6R2Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:256" ht="26.25">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>R201 R202 R203 R204 R205 R206 R207 R208 R301 R302 R303 R304 R305 R306 R307 R308</t>
+          <t>RJE73-188-00440</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:256">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>J401</t>
         </is>
       </c>
       <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>49.899999999999999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>USB_C_Receptacle_USB2.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>myfp:USB_C_GCT_USB4085</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.usb.org/sites/default/files/documents/usb_type-c.zip</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>USB4085-GF-A</t>
+        </is>
       </c>
     </row>
     <row r="19" spans="1:256">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R209 R309</t>
+          <t>L201 L202 L203 L204 L301 L302 L303 L304</t>
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10k</t>
-        </is>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+          <t>470 ohm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Inductor_SMD:L_0603_1608Metric</t>
+        </is>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MPZ1608S601ATD25</t>
+        </is>
       </c>
     </row>
     <row r="20" spans="1:256">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R210 R211 R310 R311</t>
+          <t>L401</t>
         </is>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>47uH</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>myfp:L_Panasonic_ETQ-P4MxxxKFM</t>
+        </is>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ETQ-P4M470KFM</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>&gt;3.0A</t>
+        </is>
       </c>
     </row>
     <row r="21" spans="1:256">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R212 R213 R214 R215 R312 R313 R314 R315</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.2uH</t>
+        </is>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SRR5028-4R2Y</t>
+        </is>
       </c>
     </row>
     <row r="22" spans="1:256">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R216 R217 R316 R317 R402 R403</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5k1</t>
+          <t>6.2uH</t>
         </is>
       </c>
       <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SRR5028-6R2Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:256" ht="26.25">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>R101 R102 R103 R104 R105 R106 R107 R108 R109 R110 R111</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:256">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>R219 R220 R221 R222 R319 R320 R321 R322</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>dnp</t>
-        </is>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ERJ-2RKF22R0X</t>
+        </is>
       </c>
     </row>
     <row r="24" spans="1:256">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R218 R223 R318 R323</t>
+          <t>R201 R301</t>
         </is>
       </c>
       <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF1002V</t>
+        </is>
       </c>
     </row>
     <row r="25" spans="1:256">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R224 R324</t>
+          <t>R202 R203 R302 R303</t>
         </is>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>8.06k</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF1000V</t>
+        </is>
       </c>
     </row>
     <row r="26" spans="1:256">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R401</t>
+          <t>R204 R205 R206 R207 R304 R305 R306 R307</t>
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>2.1000000000000001</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:256">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>R404 R406 R407</t>
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF75R0V</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:256" ht="51.75">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>R208 R209 R210 R211 R212 R213 R214 R215 R216 R218 R219 R220 R221 R222 R223 R224 R308 R309 R310 R311 R312 R313 R314 R315 R316 R318 R319 R320 R321 R322 R323 R324</t>
         </is>
       </c>
       <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>100k</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ERJ-2RKF1002X</t>
+        </is>
       </c>
     </row>
     <row r="28" spans="1:256">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R405</t>
+          <t>R217 R317</t>
         </is>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>316k</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:256" ht="13.5">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:256">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TR201 TR301</t>
+          <t>R225 R325</t>
         </is>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6.04k</t>
+        </is>
+      </c>
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>myfp:magnetics_PT61020E</t>
-        </is>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF6041V</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:256">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R401</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:256" ht="13.5">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>U201 U301</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>LAN8810</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>myfp:QFN-72-1EP_10x10mm_P0.5mm_EP6x6mm_ThermalVias</t>
-        </is>
+      <c r="E30" t="s">
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LAN8810-AKZE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" spans="1:256" ht="13.5">
+          <t>ERJ-3GEYJ2R2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:256">
       <c r="A31" t="inlineStr">
         <is>
-          <t>U401</t>
+          <t>R402 R403</t>
         </is>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LTC3622*DE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Package_DFN_QFN:DFN-14-1EP_3x4mm_P0.5mm_EP1.7x3.3mm</t>
-        </is>
+          <t>5.1k</t>
+        </is>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LTC3622IDE#PBF</t>
+          <t>ERJ-3EKF5101V</t>
         </is>
       </c>
     </row>
     <row r="32" spans="1:256">
       <c r="A32" t="inlineStr">
         <is>
+          <t>R404</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>84.5k</t>
+        </is>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF8452V</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:256">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R405</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>316k</t>
+        </is>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF3163V</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:256">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R406 R407</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>100k</t>
+        </is>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF1003V</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:256">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TR201 TR301</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>myfp:magnetics_PT61020E</t>
+        </is>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:256">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>U201 U301</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LAN8831</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>myfp:QFN-64-1EP_8x8mm_P0.4mm_EP6x6mm_ThermalVias</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LAN8831-V/Q2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:256">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>U401</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LTC3622*DE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Package_DFN_QFN:DFN-14-1EP_3x4mm_P0.5mm_EP1.7x3.3mm</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LTC3622IDE#PBF</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:256">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>X101</t>
         </is>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>25 MHz</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Crystal:Crystal_SMD_2520-4Pin_2.5x2.0mm</t>
         </is>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>ECS-2520MV-250-CN-TR</t>
         </is>
       </c>
+    </row>
+    <row r="65536" spans="1:256">
+      <c r="B65536" s="0"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>

--- a/jvc43_bom.xlsx
+++ b/jvc43_bom.xlsx
@@ -161,11 +161,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV65536"/>
+  <dimension ref="A1:IV1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -178,7 +178,7 @@
     <col min="6" max="6" style="0" width="25.141346153846158" bestFit="1" customWidth="1"/>
     <col min="7" max="7" style="0" width="8.856610576923078" bestFit="1" customWidth="1"/>
     <col min="8" max="8" style="0" width="10.999338942307693" bestFit="1" customWidth="1"/>
-    <col min="9" max="256" style="0" width="9.142307692307693"/>
+    <col min="9" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="13.5">
@@ -1079,27 +1079,27 @@
         </is>
       </c>
     </row>
-    <row r="24" spans="1:256">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>R201 R301</t>
+    <row r="24" spans="1:256" ht="64.5">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>R201 R208 R209 R210 R211 R212 R213 R214 R215 R216 R218 R219 R220 R221 R222 R223 R224 R301 R308 R309 R310 R311 R312 R313 R314 R315 R316 R318 R319 R320 R321 R322 R323 R324</t>
         </is>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ERJ-3EKF1002V</t>
+          <t>ERJ-2RKF1002X</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
         </is>
       </c>
     </row>
-    <row r="27" spans="1:256" ht="51.75">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>R208 R209 R210 R211 R212 R213 R214 R215 R216 R218 R219 R220 R221 R222 R223 R224 R308 R309 R310 R311 R312 R313 R314 R315 R316 R318 R319 R320 R321 R322 R323 R324</t>
+    <row r="27" spans="1:256">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R217 R317</t>
         </is>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1169,47 +1169,47 @@
       <c r="E27" t="s">
         <v>1</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>ERJ-2RKF1002X</t>
-        </is>
+      <c r="F27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:256">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R217 R317</t>
+          <t>R225 R325</t>
         </is>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>18</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6.04k</t>
+        </is>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
-        <v>18</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ERJ-3EKF6041V</t>
+        </is>
       </c>
     </row>
     <row r="29" spans="1:256">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R225 R325</t>
+          <t>R401</t>
         </is>
       </c>
       <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>6.04k</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2.1000000000000001</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -1219,21 +1219,23 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ERJ-3EKF6041V</t>
+          <t>ERJ-3GEYJ2R2V</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:256">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R401</t>
+          <t>R402 R403</t>
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2.1000000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5.1k</t>
+        </is>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1243,22 +1245,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ERJ-3GEYJ2R2V</t>
+          <t>ERJ-3EKF5101V</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:256">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R402 R403</t>
+          <t>R404</t>
         </is>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5.1k</t>
+          <t>84.5k</t>
         </is>
       </c>
       <c r="D31" t="s">
@@ -1269,14 +1271,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ERJ-3EKF5101V</t>
-        </is>
+          <t>ERJ-3EKF8452V</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:256">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R404</t>
+          <t>R405</t>
         </is>
       </c>
       <c r="B32">
@@ -1284,7 +1289,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>84.5k</t>
+          <t>316k</t>
         </is>
       </c>
       <c r="D32" t="s">
@@ -1295,7 +1300,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ERJ-3EKF8452V</t>
+          <t>ERJ-3EKF3163V</t>
         </is>
       </c>
       <c r="H32">
@@ -1305,15 +1310,15 @@
     <row r="33" spans="1:256">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R405</t>
+          <t>R406 R407</t>
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>316k</t>
+          <t>100k</t>
         </is>
       </c>
       <c r="D33" t="s">
@@ -1324,7 +1329,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ERJ-3EKF3163V</t>
+          <t>ERJ-3EKF1003V</t>
         </is>
       </c>
       <c r="H33">
@@ -1334,82 +1339,78 @@
     <row r="34" spans="1:256">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R406 R407</t>
+          <t>TR201 TR301</t>
         </is>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>100k</t>
-        </is>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ERJ-3EKF1003V</t>
-        </is>
-      </c>
-      <c r="H34">
-        <v>0.01</v>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>myfp:magnetics_PT61020E</t>
+        </is>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:256">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TR201 TR301</t>
+          <t>U201 U301</t>
         </is>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>19</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>LAN8831</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>myfp:magnetics_PT61020E</t>
-        </is>
-      </c>
-      <c r="F35" t="s">
-        <v>19</v>
+          <t>myfp:QFN-64-1EP_8x8mm_P0.4mm_EP6x6mm_ThermalVias</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LAN8831-V/Q2A</t>
+        </is>
       </c>
     </row>
     <row r="36" spans="1:256">
       <c r="A36" t="inlineStr">
         <is>
-          <t>U201 U301</t>
+          <t>U401</t>
         </is>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LAN8831</t>
+          <t>LTC3622*DE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>myfp:QFN-64-1EP_8x8mm_P0.4mm_EP6x6mm_ThermalVias</t>
+          <t>Package_DFN_QFN:DFN-14-1EP_3x4mm_P0.5mm_EP1.7x3.3mm</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LAN8831-V/Q2A</t>
+          <t>LTC3622IDE#PBF</t>
         </is>
       </c>
     </row>
     <row r="37" spans="1:256">
       <c r="A37" t="inlineStr">
         <is>
-          <t>U401</t>
+          <t>X101</t>
         </is>
       </c>
       <c r="B37">
@@ -1417,50 +1418,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LTC3622*DE</t>
+          <t>25 MHz</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Package_DFN_QFN:DFN-14-1EP_3x4mm_P0.5mm_EP1.7x3.3mm</t>
-        </is>
+          <t>Crystal:Crystal_SMD_2520-4Pin_2.5x2.0mm</t>
+        </is>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>LTC3622IDE#PBF</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" spans="1:256">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>X101</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>25 MHz</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Crystal:Crystal_SMD_2520-4Pin_2.5x2.0mm</t>
-        </is>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>ECS-2520MV-250-CN-TR</t>
         </is>
       </c>
     </row>
-    <row r="65536" spans="1:256">
-      <c r="B65536" s="0"/>
+    <row r="65535" spans="1:256">
+      <c r="B65535" s="0"/>
+    </row>
+    <row r="1048576" spans="1:256">
+      <c r="B1048576" s="0"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>

--- a/jvc43_bom.xlsx
+++ b/jvc43_bom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
   <si>
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
@@ -63,13 +63,16 @@
     <t>CGA3E1X7R1E105K080AC</t>
   </si>
   <si>
+    <t>6.2uH</t>
+  </si>
+  <si>
     <t>myfp:L_5.8x5.8mm_cutcir_6.3mm</t>
   </si>
   <si>
+    <t>SRR5028-6R2Y</t>
+  </si>
+  <si>
     <t>Resistor_SMD:R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>10k</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
@@ -164,8 +167,8 @@
   <dimension ref="A1:IV1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1003,7 +1006,7 @@
         </is>
       </c>
     </row>
-    <row r="21" spans="1:256">
+    <row r="21" spans="1:256" ht="13.5">
       <c r="A21" t="inlineStr">
         <is>
           <t>L402</t>
@@ -1012,24 +1015,20 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4.2uH</t>
-        </is>
+      <c r="C21" t="s">
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>SRR5028-4R2Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" spans="1:256">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:256" ht="13.5">
       <c r="A22" t="inlineStr">
         <is>
           <t>L403</t>
@@ -1040,18 +1039,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6.2uH</t>
+          <t>15uH</t>
         </is>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SRR5028-6R2Y</t>
+          <t>SRR5028-150Y</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1088,11 +1087,13 @@
       <c r="B24">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
-        <v>16</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10k</t>
+        </is>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -1116,7 +1117,7 @@
         <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -1140,7 +1141,7 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -1161,16 +1162,16 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:256">
@@ -1188,7 +1189,7 @@
         </is>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -1212,7 +1213,7 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -1238,7 +1239,7 @@
         </is>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -1264,7 +1265,7 @@
         </is>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -1293,7 +1294,7 @@
         </is>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -1322,7 +1323,7 @@
         </is>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -1346,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1354,7 +1355,7 @@
         </is>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:256">
